--- a/ResultadoEleicoesDistritos/LEIRIA_CASTANHEIRA DE PÊRA.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_CASTANHEIRA DE PÊRA.xlsx
@@ -597,61 +597,61 @@
         <v>739</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>27</v>
+      </c>
+      <c r="T2" t="n">
+        <v>50</v>
+      </c>
+      <c r="U2" t="n">
         <v>2</v>
       </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>36</v>
-      </c>
-      <c r="T2" t="n">
-        <v>47</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
+        <v>482</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="V2" t="n">
-        <v>487</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
+        <v>480</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" t="n">
-        <v>448</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
